--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Саша\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -479,12 +482,51 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -494,65 +536,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,76 +865,76 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="17" customWidth="1"/>
     <col min="3" max="3" width="3" style="17" customWidth="1"/>
     <col min="4" max="4" width="9" style="17" customWidth="1"/>
     <col min="5" max="5" width="8" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="15" customWidth="1"/>
     <col min="7" max="7" width="10" style="16" customWidth="1"/>
     <col min="8" max="8" width="12" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="15" customWidth="1"/>
     <col min="11" max="11" width="9" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="15" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="15" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-    </row>
-    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+    </row>
+    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+    </row>
+    <row r="3" spans="1:16" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
@@ -942,119 +945,119 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="11"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="37"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="10"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -1062,67 +1065,67 @@
       <c r="O9" s="10"/>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
       <c r="M12" s="9"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
@@ -1142,7 +1145,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1160,7 +1163,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1178,79 +1181,79 @@
       <c r="O15" s="14"/>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:16" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="30" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="26"/>
+      <c r="G16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="35"/>
-      <c r="P16" s="30" t="s">
+      <c r="O16" s="26"/>
+      <c r="P16" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
+    <row r="17" spans="1:16" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
       <c r="N17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="36"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
         <v>1</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="7">
         <v>2</v>
       </c>
@@ -1290,11 +1293,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="D1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:O5"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="A7:P7"/>
@@ -1308,12 +1312,11 @@
     <mergeCell ref="M16:M17"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1330,38 +1333,38 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="20"/>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="48"/>
+      <c r="L1" s="45"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="49" t="s">
+      <c r="N1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="49"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
       <c r="S1" s="19"/>
     </row>
-    <row r="2" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1390,7 +1393,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
     </row>
-    <row r="3" spans="1:19" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1411,18 +1414,18 @@
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
     </row>
-    <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="19"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -1434,7 +1437,7 @@
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1449,19 +1452,19 @@
       </c>
       <c r="I5" s="24"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
     </row>
-    <row r="6" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="12.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1472,27 +1475,27 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
@@ -1507,16 +1510,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K5:N6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/Avi Git/CRM-Avi/templates/order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$16:$18</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Приложение № 1
 к постановлению Правительства Российской Федерации
@@ -177,11 +177,20 @@
   <si>
     <t>ПРИМЕЧАНИЕ.  Первый экземпляр - покупателю, второй экземпляр - продавцу.</t>
   </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идентификатор государственного контракта, договора (соглашения): Договор поставки № </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -326,15 +335,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -410,9 +410,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,9 +461,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -482,12 +479,60 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -497,49 +542,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -547,15 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,466 +867,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="3" style="17" customWidth="1"/>
     <col min="4" max="4" width="9" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="10" style="16" customWidth="1"/>
-    <col min="8" max="8" width="12" style="16" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="9" style="15" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="15" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9" style="15" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-    </row>
-    <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-    </row>
-    <row r="3" spans="1:16" ht="17.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-    </row>
-    <row r="8" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
+    </row>
+    <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33" t="s">
+      <c r="P9" s="10"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="10"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="10"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="P10" s="10"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="10"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="10"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="P11" s="10"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="10"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="10"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="I16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="J16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="K16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="L16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="M16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="N16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="25" t="s">
+      <c r="O16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="25" t="s">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="7" t="s">
+    <row r="17" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="7" t="s">
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
         <v>1</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="7">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>4</v>
       </c>
-      <c r="I18" s="7">
+      <c r="J18" s="7">
         <v>5</v>
       </c>
-      <c r="J18" s="7">
+      <c r="K18" s="7">
         <v>6</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <v>7</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>8</v>
       </c>
-      <c r="M18" s="7">
+      <c r="N18" s="7">
         <v>9</v>
       </c>
-      <c r="N18" s="7">
+      <c r="O18" s="7">
         <v>10</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="D1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:O5"/>
+  <mergeCells count="26">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:O8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:L12"/>
     <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A12:M12"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
 </worksheet>
 </file>
@@ -1333,193 +1369,193 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="44" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="45" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="46" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="46"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-    </row>
-    <row r="2" spans="1:19" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="24" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+    </row>
+    <row r="2" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="24" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="22" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-    </row>
-    <row r="3" spans="1:19" ht="10.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+    </row>
+    <row r="3" spans="1:19" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-    </row>
-    <row r="5" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="24" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="24" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="48" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-    </row>
-    <row r="6" spans="1:19" ht="12.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:19" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K5:N6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -488,12 +488,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -503,65 +542,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +872,7 @@
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -880,14 +880,14 @@
     <col min="2" max="2" width="7.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="3" style="17" customWidth="1"/>
     <col min="4" max="4" width="9" style="17" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12" style="16" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="16" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="16" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9" style="15" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="15" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" style="16" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="16" customWidth="1"/>
     <col min="15" max="15" width="7.42578125" style="15" customWidth="1"/>
@@ -899,55 +899,55 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -959,124 +959,124 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1085,63 +1085,63 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1169,22 +1169,22 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="6"/>
@@ -1209,82 +1209,82 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="38" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38" t="s">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="27">
         <v>1</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="24" t="s">
         <v>40</v>
       </c>
@@ -1327,12 +1327,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="A7:Q7"/>
@@ -1347,12 +1347,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1372,29 +1372,29 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="49"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="20"/>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="51"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -1451,17 +1451,17 @@
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1488,12 +1488,12 @@
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1511,10 +1511,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1522,16 +1522,16 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -1546,16 +1546,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K5:N6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -488,12 +488,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,46 +542,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -553,15 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +872,9 @@
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -880,7 +882,7 @@
     <col min="2" max="2" width="7.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="3" style="17" customWidth="1"/>
     <col min="4" max="4" width="9" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" style="15" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="16" customWidth="1"/>
@@ -899,55 +901,55 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -959,124 +961,124 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="39"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="39"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="39"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1085,63 +1087,63 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1169,22 +1171,22 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="6"/>
@@ -1209,82 +1211,82 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="33" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="27" t="s">
+      <c r="N16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="33" t="s">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="38" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="34"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="32">
         <v>1</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="24" t="s">
         <v>40</v>
       </c>
@@ -1327,12 +1329,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="A7:Q7"/>
@@ -1347,12 +1349,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1372,29 +1374,29 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="46"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="47"/>
+      <c r="L1" s="50"/>
       <c r="M1" s="20"/>
-      <c r="N1" s="48" t="s">
+      <c r="N1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="48"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -1451,17 +1453,17 @@
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1488,12 +1490,12 @@
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1511,10 +1513,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1522,16 +1524,16 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -1546,16 +1548,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K5:N6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -488,12 +488,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -503,65 +542,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +872,7 @@
   </sheetPr>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -901,55 +901,55 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -961,124 +961,124 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1087,63 +1087,63 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1171,22 +1171,22 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="6"/>
@@ -1211,82 +1211,82 @@
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="38" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38" t="s">
+      <c r="P16" s="28"/>
+      <c r="Q16" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
       <c r="O17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="39"/>
+      <c r="Q17" s="34"/>
     </row>
     <row r="18" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="27">
         <v>1</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="24" t="s">
         <v>40</v>
       </c>
@@ -1329,12 +1329,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:P5"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="A7:Q7"/>
@@ -1349,12 +1349,12 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A16:D17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1374,29 +1374,29 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="49"/>
+      <c r="I1" s="46"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="50"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="20"/>
-      <c r="N1" s="51" t="s">
+      <c r="N1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="51"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -1453,17 +1453,17 @@
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1490,12 +1490,12 @@
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1513,10 +1513,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1524,16 +1524,16 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -1548,16 +1548,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K5:N6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -16,7 +16,7 @@
     <sheet name="низ" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$16:$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Отчет!$17:$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Приложение № 1
 к постановлению Правительства Российской Федерации
@@ -102,9 +102,6 @@
 акциза</t>
   </si>
   <si>
-    <t>Налоговая ставка</t>
-  </si>
-  <si>
     <t>Сумма налога,
 предъявляемая
 покупателю</t>
@@ -185,6 +182,12 @@
   </si>
   <si>
     <t xml:space="preserve">Идентификатор государственного контракта, договора (соглашения): Договор поставки № </t>
+  </si>
+  <si>
+    <t>Налоговая ставка, %</t>
+  </si>
+  <si>
+    <t>№ Поставщика № закза</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -487,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -870,10 +876,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,55 +907,55 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -961,124 +967,124 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="39"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="39"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="39"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1087,63 +1093,63 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1151,7 +1157,7 @@
     </row>
     <row r="13" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1171,159 +1177,180 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="A14" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="15" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="33" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="35"/>
+    </row>
+    <row r="19" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>1</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="34"/>
-    </row>
-    <row r="18" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>1</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="7">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H19" s="2">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>6</v>
+      </c>
+      <c r="L19" s="7">
+        <v>7</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>9</v>
+      </c>
+      <c r="O19" s="7">
+        <v>10</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="2">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4</v>
-      </c>
-      <c r="J18" s="7">
-        <v>5</v>
-      </c>
-      <c r="K18" s="7">
-        <v>6</v>
-      </c>
-      <c r="L18" s="7">
-        <v>7</v>
-      </c>
-      <c r="M18" s="7">
-        <v>8</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9</v>
-      </c>
-      <c r="O18" s="7">
-        <v>10</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="Q19" s="1">
         <v>11</v>
       </c>
     </row>
@@ -1335,26 +1362,26 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:P5"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
     <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A8:P8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="A12:M12"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A16:D17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1374,29 +1401,29 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="46" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="47" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="48"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -1408,22 +1435,22 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="18"/>
       <c r="H2" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>35</v>
       </c>
       <c r="O2" s="23"/>
       <c r="P2" s="18"/>
@@ -1453,17 +1480,17 @@
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1481,21 +1508,21 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="18"/>
       <c r="H5" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
+      <c r="K5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1513,10 +1540,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1524,16 +1551,16 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
+      <c r="A7" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -31,12 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
-  <si>
-    <t>Приложение № 1
-к постановлению Правительства Российской Федерации
-от 26 декабря 2011 г. №1137</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Счет-фактура № 1184 от 26 октября 2016 г.</t>
   </si>
@@ -117,11 +112,6 @@
 происхождения товара</t>
   </si>
   <si>
-    <t>Номер 
-таможенной 
-декларации</t>
-  </si>
-  <si>
     <t>код</t>
   </si>
   <si>
@@ -165,9 +155,6 @@
     <t>(ф.и.о)</t>
   </si>
   <si>
-    <t>Индивидуальный предприниматель</t>
-  </si>
-  <si>
     <t>(реквизиты свидетельства о государственной
 регистрации индивидуального предпринимателя)</t>
   </si>
@@ -175,9 +162,6 @@
     <t>ПРИМЕЧАНИЕ.  Первый экземпляр - покупателю, второй экземпляр - продавцу.</t>
   </si>
   <si>
-    <t>Код</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -188,6 +172,26 @@
   </si>
   <si>
     <t>№ Поставщика № закза</t>
+  </si>
+  <si>
+    <t>Приложение № 1
+к постановлению Правительства Российской Федерации
+от 26 декабря 2011 г. №1137
+(в ред. Постановления Правительства РФ от 19.08.2017 №981)</t>
+  </si>
+  <si>
+    <t>Код вида товара</t>
+  </si>
+  <si>
+    <t>регистрационный номер 
+таможенной 
+декларации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индивидуальный предприниматель </t>
+  </si>
+  <si>
+    <t>или иное уполномоченное лицо</t>
   </si>
 </sst>
 </file>
@@ -413,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -494,12 +498,48 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -512,46 +552,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -560,14 +573,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,9 +885,7 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -900,62 +905,62 @@
     <col min="14" max="14" width="14.140625" style="16" customWidth="1"/>
     <col min="15" max="15" width="7.42578125" style="15" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -967,124 +972,124 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="36"/>
+    </row>
+    <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="39"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1093,63 +1098,63 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="A10" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="A11" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
+      <c r="A12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1157,7 +1162,7 @@
     </row>
     <row r="13" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1177,29 +1182,29 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
+      <c r="A14" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -1238,90 +1243,90 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="G17" s="38"/>
+      <c r="H17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="34" t="s">
+      <c r="I17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="J17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="K17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="L17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="N17" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="28" t="s">
+    </row>
+    <row r="18" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="34" t="s">
+      <c r="G18" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="P18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="35"/>
+      <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+      <c r="A19" s="33">
         <v>1</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2">
         <v>3</v>
@@ -1348,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="1">
         <v>11</v>
@@ -1356,12 +1361,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="A7:Q7"/>
@@ -1376,12 +1381,12 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:Q18"/>
     <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D1:Q1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A5:P5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1395,35 +1400,35 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="47" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="49"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -1435,22 +1440,22 @@
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="18"/>
       <c r="H2" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O2" s="23"/>
       <c r="P2" s="18"/>
@@ -1458,8 +1463,10 @@
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:19" ht="10.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1479,18 +1486,18 @@
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
-    <row r="4" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+    <row r="4" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1508,21 +1515,21 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="23"/>
       <c r="G5" s="18"/>
       <c r="H5" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="23"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
+      <c r="K5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1540,10 +1547,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1551,16 +1558,16 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="A7" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -1575,16 +1582,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K5:N6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -165,9 +165,6 @@
     <t>1a</t>
   </si>
   <si>
-    <t xml:space="preserve">Идентификатор государственного контракта, договора (соглашения): Договор поставки № </t>
-  </si>
-  <si>
     <t>Налоговая ставка, %</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>или иное уполномоченное лицо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идентификатор государственного контракта, договора (соглашения) (при наличии): Договор поставки № </t>
   </si>
 </sst>
 </file>
@@ -498,6 +498,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -556,10 +559,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -572,9 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,7 +885,9 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -912,55 +914,55 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="D1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
@@ -972,124 +974,124 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1098,63 +1100,63 @@
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -1182,29 +1184,29 @@
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="A14" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -1243,82 +1245,82 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="39" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="39" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="18" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="40"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
       <c r="O18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="40"/>
+      <c r="Q18" s="41"/>
     </row>
     <row r="19" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="34">
         <v>1</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="24" t="s">
         <v>35</v>
       </c>
@@ -1406,29 +1408,29 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="51"/>
+      <c r="L1" s="52"/>
       <c r="M1" s="20"/>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="52"/>
+      <c r="O1" s="53"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
@@ -1464,8 +1466,8 @@
       <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>42</v>
+      <c r="A3" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1488,16 +1490,16 @@
     </row>
     <row r="4" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1547,10 +1549,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1558,16 +1560,16 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Счет-фактура № 1184 от 26 октября 2016 г.</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t xml:space="preserve">Идентификатор государственного контракта, договора (соглашения) (при наличии): Договор поставки № </t>
+  </si>
+  <si>
+    <t>1б</t>
+  </si>
+  <si>
+    <t>Внутренний код покупателя</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -477,9 +483,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -502,11 +505,59 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -516,44 +567,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -561,20 +585,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,11 +901,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:N14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -895,500 +911,525 @@
     <col min="2" max="2" width="7.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="3" style="17" customWidth="1"/>
     <col min="4" max="4" width="9" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="15" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="16" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="15" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="15" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="15" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+    </row>
+    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="9"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="O3" s="9"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="5"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="37"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="5"/>
+    </row>
+    <row r="10" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="10"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
       <c r="P10" s="10"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="Q10" s="10"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="10"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="Q11" s="10"/>
+      <c r="R11" s="5"/>
+    </row>
+    <row r="12" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10"/>
+      <c r="R12" s="5"/>
+    </row>
+    <row r="13" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="12"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="Q13" s="10"/>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="10"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="10"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="1:17" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="O16" s="9"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="1:18" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="40" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="J17" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="K17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="L17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="M17" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="N17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="O17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="P17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40" t="s">
+      <c r="Q17" s="32"/>
+      <c r="R17" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="7" t="s">
+    <row r="18" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="7" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="41"/>
-    </row>
-    <row r="19" spans="1:17" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="R18" s="38"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>1</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="24" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="J19" s="7">
         <v>4</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="7">
         <v>5</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <v>6</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>7</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N19" s="7">
         <v>8</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="7">
         <v>9</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="7">
         <v>10</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="D1:R1"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A17:D18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A11:N11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1402,7 +1443,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,56 +1458,56 @@
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="51"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="19"/>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="52"/>
+      <c r="L1" s="51"/>
       <c r="M1" s="20"/>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="53"/>
+      <c r="O1" s="52"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18"/>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
     </row>
-    <row r="2" spans="1:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="23"/>
+      <c r="O2" s="22"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="18"/>
@@ -1489,12 +1530,12 @@
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="49"/>
       <c r="F4" s="49"/>
       <c r="G4" s="18"/>
@@ -1516,22 +1557,22 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1549,10 +1590,10 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1560,19 +1601,19 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -1584,16 +1625,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K5:N6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K5:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Счет-фактура № 1184 от 26 октября 2016 г.</t>
   </si>
@@ -143,12 +143,6 @@
     <t>Ширяева Н.А.</t>
   </si>
   <si>
-    <t>Главный бухгалтер</t>
-  </si>
-  <si>
-    <t>Жанчибон Т.Д.</t>
-  </si>
-  <si>
     <t>(подпись)</t>
   </si>
   <si>
@@ -198,13 +192,22 @@
   </si>
   <si>
     <t>Внутренний код покупателя</t>
+  </si>
+  <si>
+    <t>Косяченко В.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дог. №2 от 01.03.2019</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер по</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +304,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -423,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +524,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,9 +593,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -588,11 +602,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,58 +946,58 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
+      <c r="D1" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
     </row>
     <row r="3" spans="1:18" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -994,130 +1009,130 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="43"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="43"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="45"/>
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="43"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="45"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="M9" s="10"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1126,66 +1141,66 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
       <c r="O12" s="9"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
@@ -1214,30 +1229,30 @@
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
+      <c r="A14" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -1278,91 +1293,91 @@
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="1:18" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="31" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="37" t="s">
+      <c r="H17" s="34"/>
+      <c r="I17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="31" t="s">
+      <c r="M17" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="37" t="s">
-        <v>40</v>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="39" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="38"/>
+      <c r="R18" s="40"/>
     </row>
     <row r="19" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="33">
         <v>1</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
@@ -1440,107 +1455,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="58"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+    </row>
+    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="50" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="22"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="59"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>41</v>
-      </c>
+    <row r="3" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="E3" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="22"/>
       <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="H3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="22"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="M3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="22"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
     </row>
-    <row r="4" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1552,45 +1567,47 @@
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="22"/>
+    <row r="5" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="22"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
     </row>
-    <row r="6" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="E6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="22"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="22"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="55"/>
+      <c r="K6" s="55" t="s">
+        <v>31</v>
+      </c>
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
@@ -1600,42 +1617,66 @@
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
     </row>
-    <row r="7" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
+    <row r="7" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
     </row>
+    <row r="8" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K5:N6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K6:N7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\CRM-Avi\templates\order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87D1A4-9CA7-44AC-83D7-64FADE627B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="28800" windowHeight="16020"/>
+    <workbookView xWindow="2895" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Счет-фактура № 1184 от 26 октября 2016 г.</t>
   </si>
@@ -174,11 +175,6 @@
     <t>Код вида товара</t>
   </si>
   <si>
-    <t>регистрационный номер 
-таможенной 
-декларации</t>
-  </si>
-  <si>
     <t xml:space="preserve">Индивидуальный предприниматель </t>
   </si>
   <si>
@@ -201,13 +197,25 @@
   </si>
   <si>
     <t>Главный бухгалтер по</t>
+  </si>
+  <si>
+    <t>регистрационный номер декларации на товары или регистрационный номер партии тоовара подлежащего прослеживаемости</t>
+  </si>
+  <si>
+    <t>Документ от отгрузке № п/п</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>от</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,14 +281,6 @@
       <color rgb="FF080000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF080000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -471,15 +471,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -494,10 +488,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,11 +518,33 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,6 +591,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -584,27 +603,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -912,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -922,82 +940,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="3" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9" style="17" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="3" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9" style="15" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="13" customWidth="1"/>
+    <col min="17" max="17" width="7.28515625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
     </row>
     <row r="3" spans="1:18" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -1009,375 +1027,381 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="51"/>
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="45"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="51"/>
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="45"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="51"/>
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="35"/>
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="5"/>
+    </row>
+    <row r="11" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="9"/>
+      <c r="A12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="12"/>
+      <c r="A13" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+    <row r="14" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="6"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="A15" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="5"/>
+    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="39" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="33" t="s">
+      <c r="F17" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="39" t="s">
+      <c r="H17" s="40"/>
+      <c r="I17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="33" t="s">
+      <c r="N17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="33" t="s">
+      <c r="O17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
       <c r="P18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="40"/>
+      <c r="R18" s="46"/>
     </row>
     <row r="19" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="39">
         <v>1</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="29" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>42</v>
+      <c r="F19" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
@@ -1417,44 +1441,45 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="D1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:O10"/>
     <mergeCell ref="A11:O11"/>
-    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A12:O12"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="N17:N18"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:R18"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1464,202 +1489,202 @@
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="58"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="52" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="52"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="59" t="s">
+      <c r="I2" s="63"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="65"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
     <row r="3" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="31" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="32" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
     </row>
     <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
     </row>
     <row r="6" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="22" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="55" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
     </row>
     <row r="7" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
     </row>
     <row r="8" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87D1A4-9CA7-44AC-83D7-64FADE627B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497CD01-092C-41D3-9F81-3CC71BB335AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Счет-фактура № 1184 от 26 октября 2016 г.</t>
   </si>
@@ -166,56 +166,69 @@
     <t>№ Поставщика № закза</t>
   </si>
   <si>
+    <t>Код вида товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индивидуальный предприниматель </t>
+  </si>
+  <si>
+    <t>или иное уполномоченное лицо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идентификатор государственного контракта, договора (соглашения) (при наличии): Договор поставки № </t>
+  </si>
+  <si>
+    <t>1б</t>
+  </si>
+  <si>
+    <t>Внутренний код покупателя</t>
+  </si>
+  <si>
+    <t>Косяченко В.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> дог. №2 от 01.03.2019</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер по</t>
+  </si>
+  <si>
+    <t>Документ от отгрузке № п/п</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
     <t>Приложение № 1
 к постановлению Правительства Российской Федерации
 от 26 декабря 2011 г. №1137
-(в ред. Постановления Правительства РФ от 19.08.2017 №981)</t>
-  </si>
-  <si>
-    <t>Код вида товара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индивидуальный предприниматель </t>
-  </si>
-  <si>
-    <t>или иное уполномоченное лицо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Идентификатор государственного контракта, договора (соглашения) (при наличии): Договор поставки № </t>
-  </si>
-  <si>
-    <t>1б</t>
-  </si>
-  <si>
-    <t>Внутренний код покупателя</t>
-  </si>
-  <si>
-    <t>Косяченко В.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> дог. №2 от 01.03.2019</t>
-  </si>
-  <si>
-    <t>Главный бухгалтер по</t>
-  </si>
-  <si>
-    <t>регистрационный номер декларации на товары или регистрационный номер партии тоовара подлежащего прослеживаемости</t>
-  </si>
-  <si>
-    <t>Документ от отгрузке № п/п</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>от</t>
+(в ред. Постановления Правительства РФ от 02.04.2021 №534)</t>
+  </si>
+  <si>
+    <t>12a</t>
+  </si>
+  <si>
+    <t>условное
+обозначение</t>
+  </si>
+  <si>
+    <t>Количество товара подлежащего прослеживаемости, в количественной еденице измерения товара, используемой в целях осуществления прослеживаемости</t>
+  </si>
+  <si>
+    <t>Регистрационный номер декларации на товары или регистрационный номер партии тоовара подлежащего прослеживаемости</t>
+  </si>
+  <si>
+    <t>Количественная еденица измерения товара, используемая в целях осуществл. прослеж.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +326,20 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -334,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,11 +457,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,18 +524,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,12 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -543,15 +570,48 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -563,45 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -615,17 +636,96 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,7 +1034,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -958,64 +1058,70 @@
     <col min="16" max="16" width="7.42578125" style="13" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" style="13" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="57" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" style="57" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="D1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+    </row>
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-    </row>
-    <row r="3" spans="1:18" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+    </row>
+    <row r="3" spans="1:21" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
@@ -1026,239 +1132,239 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+    <row r="5" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="51"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+    <row r="6" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="51"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+    <row r="7" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="50"/>
-    </row>
-    <row r="8" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="51"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="35"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+    <row r="12" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
       <c r="O13" s="9"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="12"/>
@@ -1272,136 +1378,150 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
+    <row r="15" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="39" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="45" t="s">
+      <c r="H17" s="61"/>
+      <c r="I17" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="7" t="s">
+      <c r="Q17" s="61"/>
+      <c r="R17" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" s="66"/>
+      <c r="U17" s="62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="7" t="s">
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="46"/>
-    </row>
-    <row r="19" spans="1:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="63"/>
+      <c r="S18" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="62"/>
+    </row>
+    <row r="19" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>1</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="27" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>41</v>
+      <c r="F19" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="G19" s="7">
         <v>2</v>
@@ -1436,18 +1556,33 @@
       <c r="Q19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="33">
         <v>11</v>
       </c>
+      <c r="S19" s="33">
+        <v>12</v>
+      </c>
+      <c r="T19" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="U19" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T20" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="D1:R1"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:Q5"/>
+  <mergeCells count="29">
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:U18"/>
+    <mergeCell ref="D1:U1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="K17:K18"/>
@@ -1463,115 +1598,118 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:R18"/>
     <mergeCell ref="A15:O15"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A2:R2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="21" width="11.42578125" style="56"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="63" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="65" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+    </row>
+    <row r="3" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="83"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>38</v>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+    </row>
+    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -1584,99 +1722,102 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+    <row r="5" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="71"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="56"/>
+      <c r="I6" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="60" t="s">
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+    </row>
+    <row r="7" spans="1:20" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+    </row>
+    <row r="8" spans="1:20" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
@@ -1688,18 +1829,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="M6:T7"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="K6:N7"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/templates/order/фактура.xlsx
+++ b/templates/order/фактура.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4497CD01-092C-41D3-9F81-3CC71BB335AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64432D3-5053-428A-A0D2-2BCEBEC55655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>Счет-фактура № 1184 от 26 октября 2016 г.</t>
   </si>
@@ -222,13 +222,19 @@
   </si>
   <si>
     <t>Количественная еденица измерения товара, используемая в целях осуществл. прослеж.</t>
+  </si>
+  <si>
+    <t>1в</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,14 +293,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF080000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -476,256 +474,213 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,575 +989,644 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="3" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9" style="15" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="14" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="13" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="57" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" style="57" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="57" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" style="17" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="17" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="36" t="s">
+    <row r="1" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-    </row>
-    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+    </row>
+    <row r="2" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-    </row>
-    <row r="3" spans="1:21" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+    </row>
+    <row r="3" spans="1:22" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+    </row>
+    <row r="6" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+    </row>
+    <row r="7" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="42"/>
-    </row>
-    <row r="8" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+    </row>
+    <row r="8" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+    </row>
+    <row r="10" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="32" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+    </row>
+    <row r="12" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+    </row>
+    <row r="13" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+    </row>
+    <row r="14" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+    </row>
+    <row r="15" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+    </row>
+    <row r="17" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="59" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="G17" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="H17" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="49"/>
+      <c r="J17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="59" t="s">
+      <c r="K17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="L17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="M17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="60" t="s">
+      <c r="N17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="O17" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="60" t="s">
+      <c r="P17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="Q17" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="59" t="s">
+      <c r="R17" s="49"/>
+      <c r="S17" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="65" t="s">
+      <c r="T17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="T17" s="66"/>
-      <c r="U17" s="62" t="s">
+      <c r="U17" s="38"/>
+      <c r="V17" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64" t="s">
+    <row r="18" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="I18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="64" t="s">
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="20" t="s">
+      <c r="R18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="63"/>
-      <c r="S18" s="67" t="s">
+      <c r="S18" s="51"/>
+      <c r="T18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="68" t="s">
+      <c r="U18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="U18" s="62"/>
-    </row>
-    <row r="19" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="V18" s="39"/>
+    </row>
+    <row r="19" spans="1:22" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="66">
         <v>1</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="24" t="s">
+      <c r="B19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="14">
         <v>2</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="1">
         <v>3</v>
       </c>
-      <c r="J19" s="7">
+      <c r="K19" s="14">
         <v>4</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="14">
         <v>5</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="14">
         <v>6</v>
       </c>
-      <c r="M19" s="7">
+      <c r="N19" s="14">
         <v>7</v>
       </c>
-      <c r="N19" s="7">
+      <c r="O19" s="14">
         <v>8</v>
       </c>
-      <c r="O19" s="7">
+      <c r="P19" s="14">
         <v>9</v>
       </c>
-      <c r="P19" s="7">
+      <c r="Q19" s="14">
         <v>10</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="33">
+      <c r="S19" s="11">
         <v>11</v>
       </c>
-      <c r="S19" s="33">
+      <c r="T19" s="11">
         <v>12</v>
       </c>
-      <c r="T19" s="69" t="s">
+      <c r="U19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="U19" s="33">
+      <c r="V19" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T20" s="58"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U20" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:U18"/>
-    <mergeCell ref="D1:U1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="E17:E18"/>
+  <mergeCells count="33">
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A16:V16"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A5:V5"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="A8:V8"/>
+    <mergeCell ref="A9:V9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:V11"/>
+    <mergeCell ref="A12:V12"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="E1:V1"/>
+    <mergeCell ref="H17:I17"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A2:R2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.27559055118110237" bottom="0" header="0" footer="0"/>
@@ -1613,234 +1637,243 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:T3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="20" max="21" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="21" max="22" width="11.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="77" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-    </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="84" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="55" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="86" t="s">
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-    </row>
-    <row r="3" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+    </row>
+    <row r="3" spans="1:21" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="81" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="72" t="s">
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72" t="s">
+      <c r="R3" s="56"/>
+      <c r="S3" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-    </row>
-    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+    </row>
+    <row r="4" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="71"/>
-    </row>
-    <row r="6" spans="1:20" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="25"/>
+    </row>
+    <row r="6" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="83" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="82" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="76" t="s">
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-    </row>
-    <row r="7" spans="1:20" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+    </row>
+    <row r="7" spans="1:21" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-    </row>
-    <row r="8" spans="1:20" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+    </row>
+    <row r="8" spans="1:21" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="M6:T7"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="N6:U7"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
